--- a/data/position_final.xlsx
+++ b/data/position_final.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Document\NTHU\master\HRC_taskalloc_w.TB_w.AR\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuyulu\Documents\thesis\HRC_taskAlloc_w.TB_w.AR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE04138D-36FD-4777-8D12-FBFD06E2319D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB27F552-11E7-4F06-ABB6-AD375C6EE40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31500" yWindow="10200" windowWidth="12150" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -40,78 +49,75 @@
   </si>
   <si>
     <t>LH</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>BOT</t>
+  </si>
+  <si>
+    <t>WP1</t>
+  </si>
+  <si>
+    <t>WP2</t>
+  </si>
+  <si>
+    <t>WP3</t>
+  </si>
+  <si>
+    <t>WP4</t>
+  </si>
+  <si>
+    <t>WP5</t>
+  </si>
+  <si>
+    <t>WP6</t>
+  </si>
+  <si>
+    <t>WP1_TOP</t>
+  </si>
+  <si>
+    <t>WP2_TOP</t>
+  </si>
+  <si>
+    <t>WP3_TOP</t>
+  </si>
+  <si>
+    <t>WP4_TOP</t>
+  </si>
+  <si>
+    <t>WP5_TOP</t>
+  </si>
+  <si>
+    <t>WP6_TOP</t>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIN1</t>
+  </si>
+  <si>
+    <t>BIN2</t>
+  </si>
+  <si>
+    <t>BIN3</t>
+  </si>
+  <si>
+    <t>BIN4</t>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WP1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WP2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WP3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WP4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WP5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WP6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WP1_TOP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WP2_TOP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WP3_TOP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WP4_TOP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WP5_TOP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WP6_TOP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIN1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIN2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIN3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIN4</t>
+    <t>A5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +143,13 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -161,17 +174,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -179,6 +183,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -459,298 +466,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4">
         <v>-20</v>
       </c>
-      <c r="C2" s="5">
-        <v>0</v>
+      <c r="C2" s="4">
+        <v>-48</v>
       </c>
       <c r="D2" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4">
         <v>20</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
+        <v>-48</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="C4" s="4">
+        <v>-20</v>
+      </c>
+      <c r="D4" s="4">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-12.5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-22.5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-22.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-22.5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B8" s="4">
+        <v>-12.5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-37.5</v>
+      </c>
+      <c r="D8" s="4">
         <v>6</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-37.5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-37.5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4">
+        <v>-12.5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-22.5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-22.5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-22.5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4">
+        <v>-12.5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>-37.5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-37.5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>-37.5</v>
+      </c>
+      <c r="D16" s="4">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-22.5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-22.5</v>
+      </c>
+      <c r="D18" s="4">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-7.5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>-37.5</v>
+      </c>
+      <c r="D19" s="4">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="C20" s="4">
+        <v>-37.5</v>
+      </c>
+      <c r="D20" s="4">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>-27.5</v>
+      </c>
+      <c r="C21" s="4">
+        <v>-22.5</v>
+      </c>
+      <c r="D21" s="4">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
-        <v>-20</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4">
-        <v>-20</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4">
-        <v>20</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="4">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4">
-        <v>-20</v>
-      </c>
-      <c r="C11" s="5">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="4">
-        <v>-20</v>
-      </c>
-      <c r="C12" s="5">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4">
-        <v>20</v>
-      </c>
-      <c r="C15" s="5">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5">
-        <v>8</v>
-      </c>
-      <c r="D16" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4">
-        <v>-40</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="4">
-        <v>-40</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4">
-        <v>40</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B22" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="C22" s="4">
+        <v>-22.5</v>
+      </c>
+      <c r="D22" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4">
-        <v>40</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>20</v>
+      <c r="B23" s="4">
+        <v>-27.5</v>
+      </c>
+      <c r="C23" s="4">
+        <v>-32.5</v>
+      </c>
+      <c r="D23" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="C24" s="4">
+        <v>-32.5</v>
+      </c>
+      <c r="D24" s="4">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
